--- a/src/test/java/recourses/capital.xlsx
+++ b/src/test/java/recourses/capital.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>USA</t>
   </si>
@@ -94,13 +94,24 @@
   </si>
   <si>
     <t>250000</t>
+  </si>
+  <si>
+    <t>IncreaseRate</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>3%</t>
+  </si>
+  <si>
+    <t>7%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,15 +433,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -440,8 +454,11 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -451,8 +468,11 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -462,19 +482,25 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="n">
-        <v>54000.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>54000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -482,7 +508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -490,7 +516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -498,7 +524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -506,7 +532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -514,7 +540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -522,7 +548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
